--- a/data/Negociado_de_Policia/npprDS_region.xlsx
+++ b/data/Negociado_de_Policia/npprDS_region.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Negociado_de_Policia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D536B-DEE2-4FEE-8D2F-E95270E62380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="5592" yWindow="1896" windowWidth="17280" windowHeight="9420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="2022" sheetId="4" r:id="rId4"/>
     <sheet name="2023" sheetId="5" r:id="rId5"/>
     <sheet name="2024" sheetId="6" r:id="rId6"/>
+    <sheet name="2025" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="19">
   <si>
     <t>San Juan</t>
   </si>
@@ -175,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,21 +494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -523,7 +525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,7 +559,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,7 +576,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,7 +593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -608,7 +610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -625,7 +627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -642,7 +644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -659,7 +661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -676,7 +678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -693,7 +695,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -710,7 +712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -727,7 +729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -751,21 +753,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -782,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -799,7 +801,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -816,7 +818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +835,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -850,7 +852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -867,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -884,7 +886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -901,7 +903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -918,7 +920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -935,7 +937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -952,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -969,7 +971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -986,7 +988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1010,21 +1012,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1162,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1269,21 +1271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1528,21 +1530,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1697,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1787,21 +1789,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1903,7 +1905,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2037,6 +2039,267 @@
       </c>
       <c r="E14">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8AA6A-EC2E-4378-859E-22B27B53A77F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>212</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>243</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
